--- a/Copie de Kanban Audio 2 - Gabarit.xlsx
+++ b/Copie de Kanban Audio 2 - Gabarit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2269244\Documents\GitHub\TP-Final-Kanban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A02E4C1E-E5FA-4E63-ABE3-E290B0B7D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D3630-C2B1-4362-9F9C-48E0456079DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="95">
   <si>
     <t>MON PROJET - KANBAN AUDIO</t>
   </si>
@@ -302,13 +302,16 @@
   </si>
   <si>
     <t>vent gazon(faible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -369,8 +372,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -573,6 +589,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,7 +601,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +821,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" activeCellId="13" sqref="A7:A19 A21:A24 A26:A35 A37:A46 A48:A57 A60 A64 A66 A68:A71 A73 A74 A76 A84:A91 A93:A99"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -818,12 +836,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -831,10 +849,10 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -842,10 +860,10 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
         <v>3</v>
@@ -853,10 +871,10 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
@@ -901,7 +919,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -919,7 +937,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -937,7 +955,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -955,7 +973,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -973,7 +991,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -991,7 +1009,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1009,7 +1027,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1027,7 +1045,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1045,7 +1063,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -1063,7 +1081,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1081,7 +1099,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1099,7 +1117,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1117,7 +1135,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1145,7 +1163,7 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1163,7 +1181,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -1181,7 +1199,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -1199,7 +1217,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -1227,7 +1245,7 @@
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -1245,7 +1263,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -1263,7 +1281,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -1281,7 +1299,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -1299,7 +1317,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -1317,7 +1335,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -1335,7 +1353,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -1353,7 +1371,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -1371,7 +1389,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -1389,7 +1407,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -1417,7 +1435,7 @@
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -1435,7 +1453,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -1453,7 +1471,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -1471,7 +1489,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -1489,7 +1507,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -1507,7 +1525,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -1525,7 +1543,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -1543,7 +1561,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -1561,7 +1579,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="12" t="s">
@@ -1579,7 +1597,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -1607,7 +1625,7 @@
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -1625,7 +1643,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -1643,7 +1661,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -1661,7 +1679,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -1679,7 +1697,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -1697,7 +1715,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -1715,7 +1733,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -1733,7 +1751,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -1751,7 +1769,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -1769,7 +1787,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="12" t="s">
@@ -1815,7 +1833,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -1879,7 +1897,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="12" t="s">
@@ -1907,7 +1925,7 @@
       <c r="H65" s="18"/>
     </row>
     <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="12" t="s">
@@ -1935,7 +1953,7 @@
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="12" t="s">
@@ -1953,7 +1971,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -1971,7 +1989,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="12" t="s">
@@ -1989,7 +2007,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B71" s="12" t="s">
@@ -2017,7 +2035,7 @@
       <c r="H72" s="18"/>
     </row>
     <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="12" t="s">
@@ -2035,7 +2053,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B74" s="12" t="s">
@@ -2063,7 +2081,7 @@
       <c r="H75" s="18"/>
     </row>
     <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="12" t="s">
@@ -2091,7 +2109,7 @@
       <c r="H77" s="18"/>
     </row>
     <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B78" s="12" t="s">
@@ -2109,7 +2127,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B79" s="12" t="s">
@@ -2127,7 +2145,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B80" s="12" t="s">
@@ -2145,7 +2163,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B81" s="12" t="s">
@@ -2163,7 +2181,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -2191,7 +2209,7 @@
       <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B84" s="12" t="s">
@@ -2209,7 +2227,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B85" s="12" t="s">
@@ -2227,7 +2245,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B86" s="12" t="s">
@@ -2245,7 +2263,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="12" t="s">
@@ -2263,7 +2281,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B88" s="12" t="s">
@@ -2281,7 +2299,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="12" t="s">
@@ -2299,7 +2317,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -2317,7 +2335,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B91" s="12" t="s">
@@ -2345,7 +2363,7 @@
       <c r="H92" s="18"/>
     </row>
     <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="29" t="s">
+      <c r="A93" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -2363,7 +2381,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B94" s="12" t="s">
@@ -2381,7 +2399,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B95" s="12" t="s">
@@ -2399,7 +2417,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B96" s="12" t="s">
@@ -2417,7 +2435,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B97" s="12" t="s">
@@ -2435,7 +2453,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B98" s="12" t="s">
@@ -2453,7 +2471,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B99" s="12" t="s">
@@ -2480,15 +2498,741 @@
       <c r="G100" s="19"/>
       <c r="H100" s="18"/>
     </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="30"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C136" s="12">
+        <v>1</v>
+      </c>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C137" s="12">
+        <v>2</v>
+      </c>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" s="12">
+        <v>3</v>
+      </c>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C139" s="12">
+        <v>4</v>
+      </c>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D4"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A7:A100 H7:H100" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H111:H150 H7:H100 A111:A150 A7:A100" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SFX,Ambience,musique,Antoine,Mathis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B20 B22:B100" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B20 B22:B100 B111:B150" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Joueur,Arme Joueur,Chomper,Spitter,Grenadier (boss),Coffre santé,Interupteur,plaque,Porte,grenade,boule crachat,musique,surface,ambience extra"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0000-000002000000}">

--- a/Copie de Kanban Audio 2 - Gabarit.xlsx
+++ b/Copie de Kanban Audio 2 - Gabarit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2269244\Documents\GitHub\TP-Final-Kanban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432072E3-0F49-4499-8A4B-4A08F4743894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBFE0E3-2895-403E-81FF-C698D9B36781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="162">
   <si>
     <t>MON PROJET - KANBAN AUDIO</t>
   </si>
@@ -314,13 +314,205 @@
   </si>
   <si>
     <t>recoit domage 4</t>
+  </si>
+  <si>
+    <t>Omonatopés exclamation 1 vocale</t>
+  </si>
+  <si>
+    <t>Omonatopés exclamation 2 vocale</t>
+  </si>
+  <si>
+    <t>pas terre 1</t>
+  </si>
+  <si>
+    <t>pas terre 2</t>
+  </si>
+  <si>
+    <t>pas terre 3</t>
+  </si>
+  <si>
+    <t>pas terre 4</t>
+  </si>
+  <si>
+    <t>pas terre 5</t>
+  </si>
+  <si>
+    <t>pas gazon 1</t>
+  </si>
+  <si>
+    <t>pas gazon 2</t>
+  </si>
+  <si>
+    <t>pas gazon 3</t>
+  </si>
+  <si>
+    <t>pas gazon 4</t>
+  </si>
+  <si>
+    <t>pas gazon 5</t>
+  </si>
+  <si>
+    <t>pas gazon 6</t>
+  </si>
+  <si>
+    <t>pas boue 1</t>
+  </si>
+  <si>
+    <t>pas boue 2</t>
+  </si>
+  <si>
+    <t>pas boue 3</t>
+  </si>
+  <si>
+    <t>pas boue 4</t>
+  </si>
+  <si>
+    <t>pas boue 5</t>
+  </si>
+  <si>
+    <t>pas boue 6</t>
+  </si>
+  <si>
+    <t>pas pierre 1</t>
+  </si>
+  <si>
+    <t>pas pierre 2</t>
+  </si>
+  <si>
+    <t>pas pierre 3</t>
+  </si>
+  <si>
+    <t>pas pierre 4</t>
+  </si>
+  <si>
+    <t>pas pierre 5</t>
+  </si>
+  <si>
+    <t>attaque 1</t>
+  </si>
+  <si>
+    <t>attaque 2</t>
+  </si>
+  <si>
+    <t>attaque 3</t>
+  </si>
+  <si>
+    <t>attaque 4</t>
+  </si>
+  <si>
+    <t>bruit de pas 1</t>
+  </si>
+  <si>
+    <t>bruit de pas 2</t>
+  </si>
+  <si>
+    <t>bruit de pas 3</t>
+  </si>
+  <si>
+    <t>bruit de pas 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Omonatopés grognement 3 vocale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Omonatopés grognement 4 vocale</t>
+  </si>
+  <si>
+    <t>Omonatopés exclamation 3 vocale</t>
+  </si>
+  <si>
+    <t>Omonatopés exclamation 4 vocale</t>
+  </si>
+  <si>
+    <t>bruit de pas 5</t>
+  </si>
+  <si>
+    <t>bruit de pas 6</t>
+  </si>
+  <si>
+    <t>attaque lancé 1</t>
+  </si>
+  <si>
+    <t>attaque lancé 2</t>
+  </si>
+  <si>
+    <t>attaque lancé 3</t>
+  </si>
+  <si>
+    <t>attaque lancé 4</t>
+  </si>
+  <si>
+    <t>attaque lancé 5</t>
+  </si>
+  <si>
+    <t>bruit d'effort lancé 1</t>
+  </si>
+  <si>
+    <t>bruit d'effort lancé 2</t>
+  </si>
+  <si>
+    <t>bruit d'effort lancé 3</t>
+  </si>
+  <si>
+    <t>bruit d'effort lancé 4</t>
+  </si>
+  <si>
+    <t>bruit d'effort lancé 5</t>
+  </si>
+  <si>
+    <t>Bulle d'acide 1</t>
+  </si>
+  <si>
+    <t>Bulle d'acide 2</t>
+  </si>
+  <si>
+    <t>Bulle d'acide 3</t>
+  </si>
+  <si>
+    <t>Bulle d'acide 4</t>
+  </si>
+  <si>
+    <t>Eclabousure acide 1</t>
+  </si>
+  <si>
+    <t>Eclabousure acide 2</t>
+  </si>
+  <si>
+    <t>Eclabousure acide 3</t>
+  </si>
+  <si>
+    <t>propulseur 1</t>
+  </si>
+  <si>
+    <t>propulseur 2</t>
+  </si>
+  <si>
+    <t>vent par propulseur 1</t>
+  </si>
+  <si>
+    <t>vent par propulseur 2</t>
+  </si>
+  <si>
+    <t>atterissage vaisseaux 1</t>
+  </si>
+  <si>
+    <t>atterissage vaisseaux 2</t>
+  </si>
+  <si>
+    <t>oiseau 1</t>
+  </si>
+  <si>
+    <t>oiseau 2</t>
+  </si>
+  <si>
+    <t>oiseau 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,6 +572,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -831,8 +1028,8 @@
   </sheetPr>
   <dimension ref="A1:Q220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I214" sqref="I214"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3323,22 +3520,14 @@
       </c>
     </row>
     <row r="101" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A101" s="17"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
@@ -3349,22 +3538,14 @@
       <c r="Q101" s="17"/>
     </row>
     <row r="102" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A102" s="17"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="17"/>
       <c r="J102" s="20" t="s">
         <v>13</v>
       </c>
@@ -3383,22 +3564,14 @@
       </c>
     </row>
     <row r="103" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A103" s="17"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="17"/>
       <c r="J103" s="17"/>
       <c r="K103" s="18"/>
       <c r="L103" s="18"/>
@@ -3409,22 +3582,14 @@
       <c r="Q103" s="17"/>
     </row>
     <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A104" s="17"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="17"/>
       <c r="J104" s="20" t="s">
         <v>13</v>
       </c>
@@ -3443,22 +3608,14 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A105" s="17"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="17"/>
       <c r="J105" s="20" t="s">
         <v>13</v>
       </c>
@@ -3484,7 +3641,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -3518,7 +3675,7 @@
         <v>14</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -3552,7 +3709,7 @@
         <v>14</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
@@ -3578,7 +3735,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
@@ -3612,7 +3769,7 @@
         <v>14</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -3646,7 +3803,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
@@ -3672,7 +3829,7 @@
         <v>14</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -3706,7 +3863,7 @@
         <v>14</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
@@ -3732,7 +3889,7 @@
         <v>14</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
@@ -3766,7 +3923,7 @@
         <v>14</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
@@ -3800,7 +3957,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
@@ -3834,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
@@ -3868,7 +4025,7 @@
         <v>14</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
@@ -3902,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
@@ -3928,7 +4085,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
@@ -3962,7 +4119,7 @@
         <v>14</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
@@ -3996,7 +4153,7 @@
         <v>14</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
@@ -4030,7 +4187,7 @@
         <v>14</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
@@ -4064,7 +4221,7 @@
         <v>14</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
@@ -4098,7 +4255,7 @@
         <v>14</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
@@ -4132,7 +4289,7 @@
         <v>14</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
@@ -4166,7 +4323,7 @@
         <v>14</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
@@ -4200,7 +4357,7 @@
         <v>14</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
@@ -4226,7 +4383,7 @@
         <v>14</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
@@ -4260,7 +4417,7 @@
         <v>14</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
@@ -4294,7 +4451,7 @@
         <v>14</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
@@ -4328,7 +4485,7 @@
         <v>36</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
@@ -4362,7 +4519,7 @@
         <v>36</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
@@ -4396,7 +4553,7 @@
         <v>36</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
@@ -4430,7 +4587,7 @@
         <v>36</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
@@ -4464,7 +4621,7 @@
         <v>36</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
@@ -4482,7 +4639,7 @@
         <v>36</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
@@ -4500,7 +4657,7 @@
         <v>36</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
@@ -4518,7 +4675,7 @@
         <v>36</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -4644,7 +4801,7 @@
         <v>36</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
@@ -4662,7 +4819,7 @@
         <v>36</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
@@ -4680,7 +4837,7 @@
         <v>36</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
@@ -4715,8 +4872,8 @@
       <c r="B150" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C150" s="14" t="s">
-        <v>43</v>
+      <c r="C150" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4733,11 +4890,11 @@
       <c r="B151" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C151" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="C151" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="17" t="s">
@@ -4752,7 +4909,7 @@
         <v>36</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
@@ -4770,7 +4927,7 @@
         <v>36</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
@@ -4785,10 +4942,10 @@
         <v>13</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
@@ -4803,10 +4960,10 @@
         <v>13</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
@@ -4824,7 +4981,7 @@
         <v>47</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -4842,7 +4999,7 @@
         <v>47</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -4860,7 +5017,7 @@
         <v>47</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
@@ -4878,7 +5035,7 @@
         <v>47</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -4893,10 +5050,10 @@
         <v>13</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
@@ -4911,10 +5068,10 @@
         <v>13</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
@@ -4932,7 +5089,7 @@
         <v>48</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
@@ -4950,7 +5107,7 @@
         <v>48</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
@@ -4968,7 +5125,7 @@
         <v>48</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
@@ -4986,7 +5143,7 @@
         <v>48</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
@@ -5004,7 +5161,7 @@
         <v>48</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
@@ -5022,7 +5179,7 @@
         <v>48</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
@@ -5040,7 +5197,7 @@
         <v>48</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
@@ -5058,7 +5215,7 @@
         <v>48</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
@@ -5076,7 +5233,7 @@
         <v>48</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
@@ -5094,7 +5251,7 @@
         <v>48</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
@@ -5112,7 +5269,7 @@
         <v>48</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
@@ -5130,7 +5287,7 @@
         <v>48</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
@@ -5148,7 +5305,7 @@
         <v>48</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
@@ -5166,7 +5323,7 @@
         <v>48</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
@@ -5184,7 +5341,7 @@
         <v>48</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
@@ -5202,7 +5359,7 @@
         <v>48</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -5220,7 +5377,7 @@
         <v>48</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
@@ -5238,7 +5395,7 @@
         <v>48</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -5256,7 +5413,7 @@
         <v>48</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -5271,10 +5428,10 @@
         <v>13</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="C181" s="12">
+        <v>1</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -5289,10 +5446,10 @@
         <v>13</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="C182" s="12">
+        <v>2</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -5307,10 +5464,10 @@
         <v>13</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="C183" s="12">
+        <v>3</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -5325,10 +5482,10 @@
         <v>13</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="C184" s="12">
+        <v>4</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
@@ -5339,14 +5496,14 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="20" t="s">
-        <v>13</v>
+      <c r="A185" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C185" s="12">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -5357,14 +5514,14 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="20" t="s">
-        <v>13</v>
+      <c r="A186" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C186" s="12">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -5375,14 +5532,14 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="20" t="s">
-        <v>13</v>
+      <c r="A187" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C187" s="12">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -5393,14 +5550,14 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="20" t="s">
-        <v>13</v>
+      <c r="A188" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C188" s="12">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -5411,14 +5568,14 @@
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="30" t="s">
-        <v>71</v>
+      <c r="A189" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -5429,14 +5586,14 @@
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="30" t="s">
-        <v>71</v>
+      <c r="A190" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -5447,14 +5604,14 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="30" t="s">
-        <v>71</v>
+      <c r="A191" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -5465,14 +5622,14 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="30" t="s">
-        <v>71</v>
+      <c r="A192" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -5490,7 +5647,7 @@
         <v>77</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -5508,7 +5665,7 @@
         <v>77</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -5526,7 +5683,7 @@
         <v>77</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -5544,7 +5701,7 @@
         <v>77</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -5559,10 +5716,10 @@
         <v>13</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -5577,10 +5734,10 @@
         <v>13</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -5595,10 +5752,10 @@
         <v>13</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -5613,10 +5770,10 @@
         <v>13</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -5634,7 +5791,7 @@
         <v>86</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -5652,7 +5809,7 @@
         <v>86</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -5663,14 +5820,14 @@
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="20" t="s">
-        <v>13</v>
+      <c r="A203" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -5681,14 +5838,14 @@
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="20" t="s">
-        <v>13</v>
+      <c r="A204" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -5699,14 +5856,14 @@
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="20" t="s">
-        <v>13</v>
+      <c r="A205" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="B205" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -5717,76 +5874,44 @@
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B206" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="19"/>
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B207" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C207" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A207" s="19"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19"/>
     </row>
     <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B208" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C208" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A208" s="19"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19"/>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B209" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A209" s="19"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
     </row>
     <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="19"/>
@@ -5902,11 +6027,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D4"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q43:Q135 J43:J135 A7:A209 H7:H209" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q43:Q135 J43:J135 H7:H205 A7:A205" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SFX,Ambience,musique,Antoine,Mathis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B12 K58:K135 K43:K56 B14:B209" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B12 K58:K135 K43:K56 B14:B205" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Joueur,Arme Joueur,Chomper,Spitter,Grenadier (boss),Coffre santé,Interupteur,plaque,Porte,grenade,boule crachat,musique,surface,ambience extra"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K57 B13" xr:uid="{D9ABF81F-9AC8-41DA-90D5-DC9A15228764}">

--- a/Copie de Kanban Audio 2 - Gabarit.xlsx
+++ b/Copie de Kanban Audio 2 - Gabarit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2269244\Documents\GitHub\TP-Final-Kanban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBFE0E3-2895-403E-81FF-C698D9B36781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FF70A9-636F-4820-898E-DCFF22F77E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="166">
   <si>
     <t>MON PROJET - KANBAN AUDIO</t>
   </si>
@@ -316,12 +316,6 @@
     <t>recoit domage 4</t>
   </si>
   <si>
-    <t>Omonatopés exclamation 1 vocale</t>
-  </si>
-  <si>
-    <t>Omonatopés exclamation 2 vocale</t>
-  </si>
-  <si>
     <t>pas terre 1</t>
   </si>
   <si>
@@ -412,18 +406,6 @@
     <t>bruit de pas 4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Omonatopés grognement 3 vocale</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Omonatopés grognement 4 vocale</t>
-  </si>
-  <si>
-    <t>Omonatopés exclamation 3 vocale</t>
-  </si>
-  <si>
-    <t>Omonatopés exclamation 4 vocale</t>
-  </si>
-  <si>
     <t>bruit de pas 5</t>
   </si>
   <si>
@@ -506,6 +488,36 @@
   </si>
   <si>
     <t>oiseau 3</t>
+  </si>
+  <si>
+    <t>Onomatopés grognement 2 vocale</t>
+  </si>
+  <si>
+    <t>Onomatopés grognement 1 vocale</t>
+  </si>
+  <si>
+    <t>Onomatopés mort 1 vocale</t>
+  </si>
+  <si>
+    <t>Onomatopés grognement 4 vocale</t>
+  </si>
+  <si>
+    <t>Onomatopés grognement 3 vocale</t>
+  </si>
+  <si>
+    <t>Onomatopés exclamation 4 vocale</t>
+  </si>
+  <si>
+    <t>Onomatopés exclamation 3 vocale</t>
+  </si>
+  <si>
+    <t>Onomatopés exclamation 2 vocale</t>
+  </si>
+  <si>
+    <t>Onomatopés exclamation 1 vocale</t>
+  </si>
+  <si>
+    <t>Onomatopés mort 2 vocale</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1040,8 @@
   </sheetPr>
   <dimension ref="A1:Q220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1489,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1503,7 +1515,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -1529,7 +1541,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1555,7 +1567,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -1581,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1607,7 +1619,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -3769,7 +3781,7 @@
         <v>14</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -3803,7 +3815,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
@@ -3829,7 +3841,7 @@
         <v>14</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -3863,7 +3875,7 @@
         <v>14</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
@@ -3889,7 +3901,7 @@
         <v>14</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
@@ -3923,7 +3935,7 @@
         <v>14</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
@@ -3957,7 +3969,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
@@ -3991,7 +4003,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
@@ -4025,7 +4037,7 @@
         <v>14</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
@@ -4059,7 +4071,7 @@
         <v>14</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
@@ -4085,7 +4097,7 @@
         <v>14</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
@@ -4119,7 +4131,7 @@
         <v>14</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
@@ -4153,7 +4165,7 @@
         <v>14</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
@@ -4187,7 +4199,7 @@
         <v>14</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
@@ -4221,7 +4233,7 @@
         <v>14</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
@@ -4255,7 +4267,7 @@
         <v>14</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
@@ -4289,7 +4301,7 @@
         <v>14</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
@@ -4323,7 +4335,7 @@
         <v>14</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
@@ -4357,7 +4369,7 @@
         <v>14</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
@@ -4383,7 +4395,7 @@
         <v>14</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
@@ -4417,7 +4429,7 @@
         <v>14</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
@@ -4451,7 +4463,7 @@
         <v>14</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
@@ -4485,7 +4497,7 @@
         <v>36</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
@@ -4519,7 +4531,7 @@
         <v>36</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
@@ -4553,7 +4565,7 @@
         <v>36</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
@@ -4587,7 +4599,7 @@
         <v>36</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
@@ -4621,7 +4633,7 @@
         <v>36</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
@@ -4639,7 +4651,7 @@
         <v>36</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
@@ -4657,7 +4669,7 @@
         <v>36</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
@@ -4675,7 +4687,7 @@
         <v>36</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -4765,7 +4777,7 @@
         <v>36</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
@@ -4783,7 +4795,7 @@
         <v>36</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
@@ -4801,7 +4813,7 @@
         <v>36</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
@@ -4819,7 +4831,7 @@
         <v>36</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
@@ -4837,7 +4849,7 @@
         <v>36</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
@@ -4855,7 +4867,7 @@
         <v>36</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
@@ -4873,7 +4885,7 @@
         <v>36</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4891,7 +4903,7 @@
         <v>36</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
@@ -4909,7 +4921,7 @@
         <v>36</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
@@ -4927,7 +4939,7 @@
         <v>36</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
@@ -4945,7 +4957,7 @@
         <v>47</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
@@ -4963,7 +4975,7 @@
         <v>47</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
@@ -4981,7 +4993,7 @@
         <v>47</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -4999,7 +5011,7 @@
         <v>47</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -5017,7 +5029,7 @@
         <v>47</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
@@ -5035,7 +5047,7 @@
         <v>47</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -5053,7 +5065,7 @@
         <v>48</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
@@ -5071,7 +5083,7 @@
         <v>48</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
@@ -5161,7 +5173,7 @@
         <v>48</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
@@ -5179,7 +5191,7 @@
         <v>48</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
@@ -5197,7 +5209,7 @@
         <v>48</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
@@ -5215,7 +5227,7 @@
         <v>48</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
@@ -5233,7 +5245,7 @@
         <v>48</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
@@ -5251,7 +5263,7 @@
         <v>48</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
@@ -5269,7 +5281,7 @@
         <v>48</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
@@ -5287,7 +5299,7 @@
         <v>48</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
@@ -5305,7 +5317,7 @@
         <v>48</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
@@ -5323,7 +5335,7 @@
         <v>48</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
@@ -5341,7 +5353,7 @@
         <v>48</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
@@ -5359,7 +5371,7 @@
         <v>48</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -5377,7 +5389,7 @@
         <v>48</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
@@ -5395,7 +5407,7 @@
         <v>48</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -5413,7 +5425,7 @@
         <v>48</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -5593,7 +5605,7 @@
         <v>77</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -5611,7 +5623,7 @@
         <v>77</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -5629,7 +5641,7 @@
         <v>77</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -5647,7 +5659,7 @@
         <v>77</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -5665,7 +5677,7 @@
         <v>77</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -5683,7 +5695,7 @@
         <v>77</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -5701,7 +5713,7 @@
         <v>77</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -5719,7 +5731,7 @@
         <v>86</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -5737,7 +5749,7 @@
         <v>86</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -5755,7 +5767,7 @@
         <v>86</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -5773,7 +5785,7 @@
         <v>86</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -5791,7 +5803,7 @@
         <v>86</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -5809,7 +5821,7 @@
         <v>86</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -5827,7 +5839,7 @@
         <v>86</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -5845,7 +5857,7 @@
         <v>86</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -5863,7 +5875,7 @@
         <v>86</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>

--- a/Copie de Kanban Audio 2 - Gabarit.xlsx
+++ b/Copie de Kanban Audio 2 - Gabarit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2269244\Documents\GitHub\TP-Final-Kanban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FF70A9-636F-4820-898E-DCFF22F77E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA1CAE-CD66-4EDF-81CF-BE35270FFA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="164">
   <si>
     <t>MON PROJET - KANBAN AUDIO</t>
   </si>
@@ -503,12 +503,6 @@
   </si>
   <si>
     <t>Onomatopés grognement 3 vocale</t>
-  </si>
-  <si>
-    <t>Onomatopés exclamation 4 vocale</t>
-  </si>
-  <si>
-    <t>Onomatopés exclamation 3 vocale</t>
   </si>
   <si>
     <t>Onomatopés exclamation 2 vocale</t>
@@ -524,7 +518,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -590,8 +584,15 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +656,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -820,6 +869,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,8 +1097,8 @@
   </sheetPr>
   <dimension ref="A1:Q220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1624,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -1593,7 +1650,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1619,7 +1676,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2072,14 +2129,14 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="17"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
       <c r="J43" s="20" t="s">
         <v>13</v>
       </c>
@@ -2098,14 +2155,14 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="17"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
       <c r="J44" s="20" t="s">
         <v>13</v>
       </c>
@@ -2124,14 +2181,14 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="17"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
       <c r="J45" s="20" t="s">
         <v>13</v>
       </c>
@@ -2150,14 +2207,14 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="17"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
       <c r="J46" s="20" t="s">
         <v>13</v>
       </c>
@@ -2176,14 +2233,14 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="17"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
       <c r="J47" s="20" t="s">
         <v>13</v>
       </c>
@@ -2202,14 +2259,14 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="17"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
       <c r="J48" s="20" t="s">
         <v>13</v>
       </c>
@@ -2228,14 +2285,14 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="17"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
       <c r="J49" s="20" t="s">
         <v>13</v>
       </c>
@@ -2254,14 +2311,14 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="17"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
       <c r="J50" s="20" t="s">
         <v>13</v>
       </c>
@@ -2280,14 +2337,14 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="17"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
       <c r="J51" s="20" t="s">
         <v>13</v>
       </c>
@@ -2306,14 +2363,14 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="17"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
       <c r="J52" s="20" t="s">
         <v>13</v>
       </c>
@@ -2332,14 +2389,14 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="17"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
       <c r="J53" s="20" t="s">
         <v>13</v>
       </c>
@@ -2358,14 +2415,14 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="17"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
       <c r="J54" s="20" t="s">
         <v>13</v>
       </c>
@@ -2384,14 +2441,14 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="17"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
       <c r="J55" s="20" t="s">
         <v>13</v>
       </c>
@@ -2410,14 +2467,14 @@
       </c>
     </row>
     <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="17"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
@@ -2428,14 +2485,14 @@
       <c r="Q56" s="17"/>
     </row>
     <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="17"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
       <c r="J57" s="20" t="s">
         <v>13</v>
       </c>
@@ -2454,14 +2511,14 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="17"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
       <c r="J58" s="20" t="s">
         <v>13</v>
       </c>
@@ -2480,14 +2537,14 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="17"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
       <c r="J59" s="20" t="s">
         <v>13</v>
       </c>
@@ -2506,14 +2563,14 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="17"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
       <c r="J60" s="20" t="s">
         <v>13</v>
       </c>
@@ -2532,14 +2589,14 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="17"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
@@ -2550,14 +2607,14 @@
       <c r="Q61" s="17"/>
     </row>
     <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="17"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
       <c r="J62" s="20" t="s">
         <v>13</v>
       </c>
@@ -2576,14 +2633,14 @@
       </c>
     </row>
     <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="17"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
       <c r="J63" s="20" t="s">
         <v>13</v>
       </c>
@@ -2602,14 +2659,14 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="17"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
       <c r="J64" s="20" t="s">
         <v>13</v>
       </c>
@@ -2628,14 +2685,14 @@
       </c>
     </row>
     <row r="65" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="17"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
       <c r="J65" s="20" t="s">
         <v>13</v>
       </c>
@@ -2654,14 +2711,14 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="17"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
       <c r="J66" s="20" t="s">
         <v>13</v>
       </c>
@@ -2680,14 +2737,14 @@
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="17"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
       <c r="J67" s="20" t="s">
         <v>13</v>
       </c>
@@ -2706,14 +2763,14 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="17"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
       <c r="J68" s="20" t="s">
         <v>13</v>
       </c>
@@ -2732,14 +2789,14 @@
       </c>
     </row>
     <row r="69" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="17"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
       <c r="J69" s="20" t="s">
         <v>13</v>
       </c>
@@ -2758,14 +2815,14 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="17"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
       <c r="J70" s="20" t="s">
         <v>13</v>
       </c>
@@ -2784,14 +2841,14 @@
       </c>
     </row>
     <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="17"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
       <c r="J71" s="20" t="s">
         <v>13</v>
       </c>
@@ -2810,14 +2867,14 @@
       </c>
     </row>
     <row r="72" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="17"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
@@ -2828,14 +2885,14 @@
       <c r="Q72" s="17"/>
     </row>
     <row r="73" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="17"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
       <c r="J73" s="20" t="s">
         <v>13</v>
       </c>
@@ -2854,14 +2911,14 @@
       </c>
     </row>
     <row r="74" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="17"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
       <c r="J74" s="20" t="s">
         <v>13</v>
       </c>
@@ -2880,14 +2937,14 @@
       </c>
     </row>
     <row r="75" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="17"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
       <c r="J75" s="20" t="s">
         <v>13</v>
       </c>
@@ -2906,14 +2963,14 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="17"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
       <c r="J76" s="20" t="s">
         <v>13</v>
       </c>
@@ -2932,14 +2989,14 @@
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="17"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
       <c r="J77" s="20" t="s">
         <v>13</v>
       </c>
@@ -2958,14 +3015,14 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="17"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
       <c r="J78" s="20" t="s">
         <v>13</v>
       </c>
@@ -2984,14 +3041,14 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="17"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
       <c r="J79" s="20" t="s">
         <v>13</v>
       </c>
@@ -3010,14 +3067,14 @@
       </c>
     </row>
     <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="17"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
       <c r="J80" s="20" t="s">
         <v>13</v>
       </c>
@@ -3036,14 +3093,14 @@
       </c>
     </row>
     <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="17"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
       <c r="J81" s="20" t="s">
         <v>13</v>
       </c>
@@ -3062,14 +3119,14 @@
       </c>
     </row>
     <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="17"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
       <c r="J82" s="20" t="s">
         <v>13</v>
       </c>
@@ -3088,14 +3145,14 @@
       </c>
     </row>
     <row r="83" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="17"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
       <c r="J83" s="17"/>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
@@ -3106,14 +3163,14 @@
       <c r="Q83" s="17"/>
     </row>
     <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="17"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
       <c r="J84" s="20" t="s">
         <v>13</v>
       </c>
@@ -3132,14 +3189,14 @@
       </c>
     </row>
     <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="17"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
       <c r="J85" s="20" t="s">
         <v>13</v>
       </c>
@@ -3158,14 +3215,14 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="17"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
       <c r="J86" s="20" t="s">
         <v>13</v>
       </c>
@@ -3184,14 +3241,14 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="17"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
       <c r="J87" s="20" t="s">
         <v>13</v>
       </c>
@@ -3210,14 +3267,14 @@
       </c>
     </row>
     <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="17"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
       <c r="J88" s="20" t="s">
         <v>13</v>
       </c>
@@ -3236,14 +3293,14 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="17"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
       <c r="J89" s="20" t="s">
         <v>13</v>
       </c>
@@ -3262,14 +3319,14 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="17"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
       <c r="J90" s="20" t="s">
         <v>13</v>
       </c>
@@ -3288,14 +3345,14 @@
       </c>
     </row>
     <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="17"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
       <c r="J91" s="20" t="s">
         <v>13</v>
       </c>
@@ -3314,14 +3371,14 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="17"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
       <c r="J92" s="20" t="s">
         <v>13</v>
       </c>
@@ -3340,14 +3397,14 @@
       </c>
     </row>
     <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="17"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
       <c r="J93" s="20" t="s">
         <v>13</v>
       </c>
@@ -3366,14 +3423,14 @@
       </c>
     </row>
     <row r="94" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="17"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
       <c r="J94" s="17"/>
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
@@ -3384,14 +3441,14 @@
       <c r="Q94" s="17"/>
     </row>
     <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="17"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="17"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
       <c r="J95" s="31" t="s">
         <v>57</v>
       </c>
@@ -3410,14 +3467,14 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="17"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
       <c r="J96" s="20" t="s">
         <v>13</v>
       </c>
@@ -3436,14 +3493,14 @@
       </c>
     </row>
     <row r="97" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="17"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="17"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
       <c r="J97" s="17"/>
       <c r="K97" s="18"/>
       <c r="L97" s="18"/>
@@ -3454,14 +3511,14 @@
       <c r="Q97" s="17"/>
     </row>
     <row r="98" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="17"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
       <c r="J98" s="31" t="s">
         <v>57</v>
       </c>
@@ -3480,14 +3537,14 @@
       </c>
     </row>
     <row r="99" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="17"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
       <c r="J99" s="31" t="s">
         <v>57</v>
       </c>
@@ -3506,14 +3563,14 @@
       </c>
     </row>
     <row r="100" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="17"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
       <c r="J100" s="20" t="s">
         <v>13</v>
       </c>
@@ -3532,14 +3589,14 @@
       </c>
     </row>
     <row r="101" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="17"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
       <c r="J101" s="17"/>
       <c r="K101" s="18"/>
       <c r="L101" s="18"/>
@@ -3550,14 +3607,14 @@
       <c r="Q101" s="17"/>
     </row>
     <row r="102" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="17"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
       <c r="J102" s="20" t="s">
         <v>13</v>
       </c>
@@ -3576,14 +3633,14 @@
       </c>
     </row>
     <row r="103" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="17"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
       <c r="J103" s="17"/>
       <c r="K103" s="18"/>
       <c r="L103" s="18"/>
@@ -3594,14 +3651,14 @@
       <c r="Q103" s="17"/>
     </row>
     <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="17"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
       <c r="J104" s="20" t="s">
         <v>13</v>
       </c>
@@ -3620,14 +3677,14 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="17"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
       <c r="J105" s="20" t="s">
         <v>13</v>
       </c>
@@ -3649,7 +3706,7 @@
       <c r="A106" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C106" s="12" t="s">
@@ -3683,7 +3740,7 @@
       <c r="A107" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="12" t="s">
@@ -3717,7 +3774,7 @@
       <c r="A108" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C108" s="12" t="s">
@@ -3743,7 +3800,7 @@
       <c r="A109" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C109" s="12" t="s">
@@ -3777,7 +3834,7 @@
       <c r="A110" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="12" t="s">
@@ -3811,7 +3868,7 @@
       <c r="A111" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="12" t="s">
@@ -3837,7 +3894,7 @@
       <c r="A112" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C112" s="12" t="s">
@@ -3871,7 +3928,7 @@
       <c r="A113" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="12" t="s">
@@ -3897,7 +3954,7 @@
       <c r="A114" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C114" s="12" t="s">
@@ -3931,7 +3988,7 @@
       <c r="A115" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C115" s="12" t="s">
@@ -3965,7 +4022,7 @@
       <c r="A116" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="12" t="s">
@@ -3999,7 +4056,7 @@
       <c r="A117" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="12" t="s">
@@ -4033,7 +4090,7 @@
       <c r="A118" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C118" s="12" t="s">
@@ -4067,7 +4124,7 @@
       <c r="A119" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="12" t="s">
@@ -4093,7 +4150,7 @@
       <c r="A120" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="12" t="s">
@@ -4127,7 +4184,7 @@
       <c r="A121" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C121" s="12" t="s">
@@ -4161,7 +4218,7 @@
       <c r="A122" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="12" t="s">
@@ -4195,7 +4252,7 @@
       <c r="A123" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="12" t="s">
@@ -4229,7 +4286,7 @@
       <c r="A124" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="12" t="s">
@@ -4263,7 +4320,7 @@
       <c r="A125" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="12" t="s">
@@ -4297,7 +4354,7 @@
       <c r="A126" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C126" s="12" t="s">
@@ -4331,7 +4388,7 @@
       <c r="A127" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="12" t="s">
@@ -4365,7 +4422,7 @@
       <c r="A128" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="12" t="s">
@@ -4391,7 +4448,7 @@
       <c r="A129" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -4425,7 +4482,7 @@
       <c r="A130" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="12" t="s">
@@ -4459,7 +4516,7 @@
       <c r="A131" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="12" t="s">
@@ -4493,7 +4550,7 @@
       <c r="A132" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C132" s="12" t="s">
@@ -4527,7 +4584,7 @@
       <c r="A133" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C133" s="12" t="s">
@@ -4561,7 +4618,7 @@
       <c r="A134" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C134" s="12" t="s">
@@ -4595,7 +4652,7 @@
       <c r="A135" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C135" s="12" t="s">
@@ -4629,7 +4686,7 @@
       <c r="A136" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C136" s="14" t="s">
@@ -4647,7 +4704,7 @@
       <c r="A137" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -4665,7 +4722,7 @@
       <c r="A138" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C138" s="14" t="s">
@@ -4683,7 +4740,7 @@
       <c r="A139" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C139" s="14" t="s">
@@ -4701,7 +4758,7 @@
       <c r="A140" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C140" s="12" t="s">
@@ -4719,7 +4776,7 @@
       <c r="A141" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="12" t="s">
@@ -4737,7 +4794,7 @@
       <c r="A142" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C142" s="12" t="s">
@@ -4755,7 +4812,7 @@
       <c r="A143" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C143" s="12" t="s">
@@ -4773,7 +4830,7 @@
       <c r="A144" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C144" s="12" t="s">
@@ -4791,7 +4848,7 @@
       <c r="A145" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C145" s="12" t="s">
@@ -4809,7 +4866,7 @@
       <c r="A146" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C146" s="12" t="s">
@@ -4827,7 +4884,7 @@
       <c r="A147" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C147" s="12" t="s">
@@ -4845,7 +4902,7 @@
       <c r="A148" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C148" s="14" t="s">
@@ -4863,11 +4920,11 @@
       <c r="A149" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
@@ -4881,11 +4938,11 @@
       <c r="A150" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4899,11 +4956,11 @@
       <c r="A151" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
@@ -4917,11 +4974,11 @@
       <c r="A152" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B152" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>162</v>
+      <c r="B152" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
@@ -4935,11 +4992,11 @@
       <c r="A153" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B153" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>161</v>
+      <c r="B153" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
@@ -4953,11 +5010,11 @@
       <c r="A154" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
@@ -4971,11 +5028,11 @@
       <c r="A155" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
@@ -4989,11 +5046,11 @@
       <c r="A156" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -5007,11 +5064,11 @@
       <c r="A157" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -5025,11 +5082,11 @@
       <c r="A158" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B158" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>128</v>
+      <c r="B158" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
@@ -5043,11 +5100,11 @@
       <c r="A159" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B159" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>129</v>
+      <c r="B159" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -5061,11 +5118,11 @@
       <c r="A160" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
@@ -5079,11 +5136,11 @@
       <c r="A161" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
@@ -5097,7 +5154,7 @@
       <c r="A162" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="B162" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C162" s="12" t="s">
@@ -5115,7 +5172,7 @@
       <c r="A163" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C163" s="12" t="s">
@@ -5133,11 +5190,11 @@
       <c r="A164" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B164" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
@@ -5151,11 +5208,11 @@
       <c r="A165" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B165" s="12" t="s">
+      <c r="B165" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
@@ -5169,11 +5226,11 @@
       <c r="A166" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
@@ -5187,11 +5244,11 @@
       <c r="A167" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
@@ -5205,11 +5262,11 @@
       <c r="A168" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
@@ -5223,11 +5280,11 @@
       <c r="A169" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
@@ -5241,11 +5298,11 @@
       <c r="A170" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B170" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
@@ -5259,11 +5316,11 @@
       <c r="A171" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
@@ -5277,11 +5334,11 @@
       <c r="A172" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
@@ -5295,11 +5352,11 @@
       <c r="A173" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
@@ -5313,11 +5370,11 @@
       <c r="A174" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
@@ -5331,11 +5388,11 @@
       <c r="A175" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
@@ -5349,11 +5406,11 @@
       <c r="A176" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
@@ -5367,11 +5424,11 @@
       <c r="A177" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
@@ -5385,11 +5442,11 @@
       <c r="A178" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
@@ -5403,11 +5460,11 @@
       <c r="A179" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B179" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>138</v>
+      <c r="B179" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C179" s="12">
+        <v>1</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -5421,11 +5478,11 @@
       <c r="A180" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B180" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>139</v>
+      <c r="B180" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C180" s="12">
+        <v>2</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -5439,11 +5496,11 @@
       <c r="A181" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C181" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -5457,11 +5514,11 @@
       <c r="A182" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C182" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -5472,14 +5529,14 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C183" s="12">
-        <v>3</v>
+      <c r="A183" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B183" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -5490,14 +5547,14 @@
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C184" s="12">
-        <v>4</v>
+      <c r="A184" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
@@ -5511,11 +5568,11 @@
       <c r="A185" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="36" t="s">
         <v>71</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -5529,11 +5586,11 @@
       <c r="A186" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B186" s="36" t="s">
         <v>71</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -5544,14 +5601,14 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B187" s="12" t="s">
-        <v>71</v>
+      <c r="A187" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -5562,14 +5619,14 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B188" s="12" t="s">
-        <v>71</v>
+      <c r="A188" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -5583,11 +5640,11 @@
       <c r="A189" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B189" s="12" t="s">
+      <c r="B189" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -5601,11 +5658,11 @@
       <c r="A190" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -5619,11 +5676,11 @@
       <c r="A191" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B191" s="12" t="s">
+      <c r="B191" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -5637,11 +5694,11 @@
       <c r="A192" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B192" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -5651,15 +5708,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B193" s="12" t="s">
+      <c r="B193" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -5669,15 +5726,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B194" s="12" t="s">
+      <c r="B194" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -5687,15 +5744,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B195" s="12" t="s">
-        <v>77</v>
+      <c r="B195" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -5705,15 +5762,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B196" s="12" t="s">
-        <v>77</v>
+      <c r="B196" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -5723,15 +5780,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B197" s="12" t="s">
+      <c r="B197" s="38" t="s">
         <v>86</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -5741,15 +5798,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B198" s="12" t="s">
+      <c r="B198" s="38" t="s">
         <v>86</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -5759,15 +5816,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B199" s="12" t="s">
+      <c r="B199" s="38" t="s">
         <v>86</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -5777,15 +5834,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B200" s="12" t="s">
+      <c r="B200" s="38" t="s">
         <v>86</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -5795,15 +5852,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B201" s="12" t="s">
+    <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B201" s="38" t="s">
         <v>86</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -5813,15 +5870,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B202" s="12" t="s">
+    <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B202" s="38" t="s">
         <v>86</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -5831,15 +5888,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B203" s="12" t="s">
+      <c r="B203" s="38" t="s">
         <v>86</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -5849,43 +5906,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B204" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+    </row>
+    <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="19"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+    </row>
+    <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="19"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -5894,8 +5937,9 @@
       <c r="F206" s="19"/>
       <c r="G206" s="19"/>
       <c r="H206" s="19"/>
-    </row>
-    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I206" s="19"/>
+    </row>
+    <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="19"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -5905,7 +5949,7 @@
       <c r="G207" s="19"/>
       <c r="H207" s="19"/>
     </row>
-    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="19"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -6041,10 +6085,10 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q43:Q135 J43:J135 H7:H205 A7:A205" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q43:Q135 J43:J135 H106:H203 A7:A42 A106:A203 H7:H42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SFX,Ambience,musique,Antoine,Mathis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B12 K58:K135 K43:K56 B14:B205" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B12 K58:K135 K43:K56 B106:B203 B14:B42" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Joueur,Arme Joueur,Chomper,Spitter,Grenadier (boss),Coffre santé,Interupteur,plaque,Porte,grenade,boule crachat,musique,surface,ambience extra"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K57 B13" xr:uid="{D9ABF81F-9AC8-41DA-90D5-DC9A15228764}">

--- a/Copie de Kanban Audio 2 - Gabarit.xlsx
+++ b/Copie de Kanban Audio 2 - Gabarit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2269244\Documents\GitHub\TP-Final-Kanban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA1CAE-CD66-4EDF-81CF-BE35270FFA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F395B6-9E97-43AB-84D1-FC37D86C6953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,8 +1097,8 @@
   </sheetPr>
   <dimension ref="A1:Q220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Copie de Kanban Audio 2 - Gabarit.xlsx
+++ b/Copie de Kanban Audio 2 - Gabarit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2269244\Documents\GitHub\TP-Final-Kanban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F395B6-9E97-43AB-84D1-FC37D86C6953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C9C560-872E-4E71-8644-48D8678D3C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,8 +1097,8 @@
   </sheetPr>
   <dimension ref="A1:Q220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R161" sqref="R161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="3"/>
       <c r="H106" s="17" t="s">
         <v>16</v>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="5"/>
       <c r="G107" s="3"/>
       <c r="H107" s="17" t="s">
         <v>16</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="5"/>
       <c r="G108" s="3"/>
       <c r="H108" s="17" t="s">
         <v>16</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="5"/>
       <c r="G109" s="3"/>
       <c r="H109" s="17" t="s">
         <v>16</v>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="5"/>
       <c r="G110" s="3"/>
       <c r="H110" s="17" t="s">
         <v>16</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="5"/>
       <c r="G111" s="3"/>
       <c r="H111" s="17" t="s">
         <v>16</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
-      <c r="F112" s="3"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="3"/>
       <c r="H112" s="17" t="s">
         <v>16</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="5"/>
       <c r="G113" s="3"/>
       <c r="H113" s="17" t="s">
         <v>16</v>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="5"/>
       <c r="G114" s="3"/>
       <c r="H114" s="17" t="s">
         <v>16</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
-      <c r="F115" s="3"/>
+      <c r="F115" s="5"/>
       <c r="G115" s="3"/>
       <c r="H115" s="17" t="s">
         <v>16</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
-      <c r="F116" s="3"/>
+      <c r="F116" s="5"/>
       <c r="G116" s="3"/>
       <c r="H116" s="17" t="s">
         <v>16</v>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
-      <c r="F117" s="3"/>
+      <c r="F117" s="5"/>
       <c r="G117" s="3"/>
       <c r="H117" s="17" t="s">
         <v>16</v>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
-      <c r="F118" s="3"/>
+      <c r="F118" s="5"/>
       <c r="G118" s="3"/>
       <c r="H118" s="17" t="s">
         <v>16</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="5"/>
       <c r="G119" s="3"/>
       <c r="H119" s="17" t="s">
         <v>16</v>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="5"/>
       <c r="G120" s="3"/>
       <c r="H120" s="17" t="s">
         <v>16</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="5"/>
       <c r="G121" s="3"/>
       <c r="H121" s="17" t="s">
         <v>16</v>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
-      <c r="F122" s="3"/>
+      <c r="F122" s="5"/>
       <c r="G122" s="3"/>
       <c r="H122" s="17" t="s">
         <v>16</v>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="5"/>
       <c r="G123" s="3"/>
       <c r="H123" s="17" t="s">
         <v>16</v>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="3"/>
+      <c r="F124" s="5"/>
       <c r="G124" s="3"/>
       <c r="H124" s="17" t="s">
         <v>16</v>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
-      <c r="F125" s="3"/>
+      <c r="F125" s="5"/>
       <c r="G125" s="3"/>
       <c r="H125" s="17" t="s">
         <v>16</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
-      <c r="F126" s="3"/>
+      <c r="F126" s="5"/>
       <c r="G126" s="3"/>
       <c r="H126" s="17" t="s">
         <v>16</v>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
-      <c r="F127" s="3"/>
+      <c r="F127" s="5"/>
       <c r="G127" s="3"/>
       <c r="H127" s="17" t="s">
         <v>16</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
-      <c r="F128" s="3"/>
+      <c r="F128" s="5"/>
       <c r="G128" s="3"/>
       <c r="H128" s="17" t="s">
         <v>16</v>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="5"/>
       <c r="G129" s="3"/>
       <c r="H129" s="17" t="s">
         <v>16</v>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
-      <c r="F130" s="3"/>
+      <c r="F130" s="5"/>
       <c r="G130" s="3"/>
       <c r="H130" s="17" t="s">
         <v>16</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
-      <c r="F131" s="3"/>
+      <c r="F131" s="5"/>
       <c r="G131" s="3"/>
       <c r="H131" s="17" t="s">
         <v>16</v>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
-      <c r="F132" s="3"/>
+      <c r="F132" s="5"/>
       <c r="G132" s="3"/>
       <c r="H132" s="17" t="s">
         <v>16</v>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
-      <c r="F133" s="3"/>
+      <c r="F133" s="5"/>
       <c r="G133" s="3"/>
       <c r="H133" s="17" t="s">
         <v>16</v>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
-      <c r="F134" s="3"/>
+      <c r="F134" s="5"/>
       <c r="G134" s="3"/>
       <c r="H134" s="17" t="s">
         <v>16</v>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="5"/>
       <c r="G135" s="3"/>
       <c r="H135" s="17" t="s">
         <v>16</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="5"/>
       <c r="G136" s="3"/>
       <c r="H136" s="17" t="s">
         <v>16</v>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="3"/>
+      <c r="F137" s="5"/>
       <c r="G137" s="3"/>
       <c r="H137" s="17" t="s">
         <v>16</v>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
-      <c r="F138" s="3"/>
+      <c r="F138" s="5"/>
       <c r="G138" s="3"/>
       <c r="H138" s="17" t="s">
         <v>16</v>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="5"/>
       <c r="G139" s="3"/>
       <c r="H139" s="17" t="s">
         <v>16</v>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="5"/>
       <c r="G140" s="3"/>
       <c r="H140" s="17" t="s">
         <v>16</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="5"/>
       <c r="G141" s="3"/>
       <c r="H141" s="17" t="s">
         <v>16</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
-      <c r="F142" s="3"/>
+      <c r="F142" s="5"/>
       <c r="G142" s="3"/>
       <c r="H142" s="17" t="s">
         <v>16</v>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
-      <c r="F143" s="3"/>
+      <c r="F143" s="5"/>
       <c r="G143" s="3"/>
       <c r="H143" s="17" t="s">
         <v>16</v>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
-      <c r="F144" s="3"/>
+      <c r="F144" s="5"/>
       <c r="G144" s="3"/>
       <c r="H144" s="17" t="s">
         <v>16</v>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
-      <c r="F145" s="3"/>
+      <c r="F145" s="5"/>
       <c r="G145" s="3"/>
       <c r="H145" s="17" t="s">
         <v>16</v>
@@ -6096,5 +6096,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Copie de Kanban Audio 2 - Gabarit.xlsx
+++ b/Copie de Kanban Audio 2 - Gabarit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2269244\Documents\GitHub\TP-Final-Kanban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C9C560-872E-4E71-8644-48D8678D3C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5899536A-ADD0-4545-84B2-CFB38D06384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanban Audio - Gabarit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="164">
   <si>
     <t>MON PROJET - KANBAN AUDIO</t>
   </si>
@@ -582,6 +582,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -856,6 +857,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,16 +879,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,8 +1099,8 @@
   </sheetPr>
   <dimension ref="A1:Q220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R161" sqref="R161"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1110,12 +1112,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1123,10 +1125,10 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -1134,10 +1136,10 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
         <v>3</v>
@@ -1145,10 +1147,10 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
@@ -1773,7 +1775,7 @@
       <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -1799,7 +1801,7 @@
       <c r="Q29" s="19"/>
     </row>
     <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -1825,7 +1827,7 @@
       <c r="Q30" s="19"/>
     </row>
     <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -1981,7 +1983,7 @@
       <c r="Q36" s="19"/>
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -3449,7 +3451,7 @@
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
-      <c r="J95" s="31" t="s">
+      <c r="J95" s="23" t="s">
         <v>57</v>
       </c>
       <c r="K95" s="12" t="s">
@@ -3519,7 +3521,7 @@
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
-      <c r="J98" s="31" t="s">
+      <c r="J98" s="23" t="s">
         <v>57</v>
       </c>
       <c r="K98" s="12" t="s">
@@ -3545,7 +3547,7 @@
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
-      <c r="J99" s="31" t="s">
+      <c r="J99" s="23" t="s">
         <v>57</v>
       </c>
       <c r="K99" s="12" t="s">
@@ -3706,7 +3708,7 @@
       <c r="A106" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C106" s="12" t="s">
@@ -3740,7 +3742,7 @@
       <c r="A107" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="34" t="s">
+      <c r="B107" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="12" t="s">
@@ -3774,7 +3776,7 @@
       <c r="A108" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C108" s="12" t="s">
@@ -3800,7 +3802,7 @@
       <c r="A109" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="34" t="s">
+      <c r="B109" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C109" s="12" t="s">
@@ -3834,7 +3836,7 @@
       <c r="A110" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="12" t="s">
@@ -3868,7 +3870,7 @@
       <c r="A111" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="12" t="s">
@@ -3894,7 +3896,7 @@
       <c r="A112" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C112" s="12" t="s">
@@ -3928,7 +3930,7 @@
       <c r="A113" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="12" t="s">
@@ -3954,7 +3956,7 @@
       <c r="A114" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C114" s="12" t="s">
@@ -3967,7 +3969,7 @@
       <c r="H114" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J114" s="30" t="s">
+      <c r="J114" s="22" t="s">
         <v>71</v>
       </c>
       <c r="K114" s="12" t="s">
@@ -3988,7 +3990,7 @@
       <c r="A115" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C115" s="12" t="s">
@@ -4001,7 +4003,7 @@
       <c r="H115" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J115" s="30" t="s">
+      <c r="J115" s="22" t="s">
         <v>71</v>
       </c>
       <c r="K115" s="12" t="s">
@@ -4022,7 +4024,7 @@
       <c r="A116" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="12" t="s">
@@ -4035,7 +4037,7 @@
       <c r="H116" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J116" s="30" t="s">
+      <c r="J116" s="22" t="s">
         <v>71</v>
       </c>
       <c r="K116" s="12" t="s">
@@ -4056,7 +4058,7 @@
       <c r="A117" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="12" t="s">
@@ -4069,7 +4071,7 @@
       <c r="H117" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J117" s="30" t="s">
+      <c r="J117" s="22" t="s">
         <v>71</v>
       </c>
       <c r="K117" s="12" t="s">
@@ -4090,7 +4092,7 @@
       <c r="A118" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C118" s="12" t="s">
@@ -4103,7 +4105,7 @@
       <c r="H118" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J118" s="30" t="s">
+      <c r="J118" s="22" t="s">
         <v>71</v>
       </c>
       <c r="K118" s="12" t="s">
@@ -4124,7 +4126,7 @@
       <c r="A119" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="12" t="s">
@@ -4150,7 +4152,7 @@
       <c r="A120" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="12" t="s">
@@ -4184,7 +4186,7 @@
       <c r="A121" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C121" s="12" t="s">
@@ -4218,7 +4220,7 @@
       <c r="A122" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="12" t="s">
@@ -4252,7 +4254,7 @@
       <c r="A123" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="34" t="s">
+      <c r="B123" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="12" t="s">
@@ -4286,7 +4288,7 @@
       <c r="A124" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="12" t="s">
@@ -4320,7 +4322,7 @@
       <c r="A125" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="12" t="s">
@@ -4354,7 +4356,7 @@
       <c r="A126" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C126" s="12" t="s">
@@ -4388,7 +4390,7 @@
       <c r="A127" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="12" t="s">
@@ -4422,7 +4424,7 @@
       <c r="A128" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="12" t="s">
@@ -4448,7 +4450,7 @@
       <c r="A129" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -4482,7 +4484,7 @@
       <c r="A130" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="34" t="s">
+      <c r="B130" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="12" t="s">
@@ -4516,7 +4518,7 @@
       <c r="A131" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="12" t="s">
@@ -4550,7 +4552,7 @@
       <c r="A132" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C132" s="12" t="s">
@@ -4584,7 +4586,7 @@
       <c r="A133" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C133" s="12" t="s">
@@ -4618,7 +4620,7 @@
       <c r="A134" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C134" s="12" t="s">
@@ -4652,7 +4654,7 @@
       <c r="A135" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C135" s="12" t="s">
@@ -4686,7 +4688,7 @@
       <c r="A136" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C136" s="14" t="s">
@@ -4704,7 +4706,7 @@
       <c r="A137" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C137" s="14" t="s">
@@ -4722,7 +4724,7 @@
       <c r="A138" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C138" s="14" t="s">
@@ -4740,7 +4742,7 @@
       <c r="A139" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C139" s="14" t="s">
@@ -4758,7 +4760,7 @@
       <c r="A140" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="39" t="s">
+      <c r="B140" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C140" s="12" t="s">
@@ -4776,7 +4778,7 @@
       <c r="A141" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B141" s="39" t="s">
+      <c r="B141" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="12" t="s">
@@ -4794,7 +4796,7 @@
       <c r="A142" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C142" s="12" t="s">
@@ -4812,7 +4814,7 @@
       <c r="A143" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B143" s="39" t="s">
+      <c r="B143" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C143" s="12" t="s">
@@ -4830,7 +4832,7 @@
       <c r="A144" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="39" t="s">
+      <c r="B144" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C144" s="12" t="s">
@@ -4848,7 +4850,7 @@
       <c r="A145" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C145" s="12" t="s">
@@ -4866,7 +4868,7 @@
       <c r="A146" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="39" t="s">
+      <c r="B146" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C146" s="12" t="s">
@@ -4884,7 +4886,7 @@
       <c r="A147" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C147" s="12" t="s">
@@ -4902,7 +4904,7 @@
       <c r="A148" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C148" s="14" t="s">
@@ -4910,7 +4912,7 @@
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
-      <c r="F148" s="3"/>
+      <c r="F148" s="5"/>
       <c r="G148" s="3"/>
       <c r="H148" s="17" t="s">
         <v>16</v>
@@ -4920,7 +4922,7 @@
       <c r="A149" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B149" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C149" s="16" t="s">
@@ -4928,7 +4930,7 @@
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
-      <c r="F149" s="3"/>
+      <c r="F149" s="5"/>
       <c r="G149" s="3"/>
       <c r="H149" s="17" t="s">
         <v>16</v>
@@ -4938,7 +4940,7 @@
       <c r="A150" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B150" s="39" t="s">
+      <c r="B150" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C150" s="12" t="s">
@@ -4956,7 +4958,7 @@
       <c r="A151" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C151" s="12" t="s">
@@ -4974,7 +4976,7 @@
       <c r="A152" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B152" s="33" t="s">
+      <c r="B152" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C152" s="14" t="s">
@@ -4982,7 +4984,7 @@
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
-      <c r="F152" s="3"/>
+      <c r="F152" s="5"/>
       <c r="G152" s="3"/>
       <c r="H152" s="17" t="s">
         <v>16</v>
@@ -4992,7 +4994,7 @@
       <c r="A153" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C153" s="14" t="s">
@@ -5000,7 +5002,7 @@
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
-      <c r="F153" s="3"/>
+      <c r="F153" s="5"/>
       <c r="G153" s="3"/>
       <c r="H153" s="17" t="s">
         <v>16</v>
@@ -5010,7 +5012,7 @@
       <c r="A154" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C154" s="14" t="s">
@@ -5018,7 +5020,7 @@
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="3"/>
+      <c r="F154" s="5"/>
       <c r="G154" s="3"/>
       <c r="H154" s="17" t="s">
         <v>16</v>
@@ -5028,7 +5030,7 @@
       <c r="A155" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C155" s="14" t="s">
@@ -5036,7 +5038,7 @@
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
-      <c r="F155" s="3"/>
+      <c r="F155" s="5"/>
       <c r="G155" s="3"/>
       <c r="H155" s="17" t="s">
         <v>16</v>
@@ -5046,7 +5048,7 @@
       <c r="A156" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C156" s="14" t="s">
@@ -5054,7 +5056,7 @@
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
-      <c r="F156" s="3"/>
+      <c r="F156" s="5"/>
       <c r="G156" s="3"/>
       <c r="H156" s="17" t="s">
         <v>16</v>
@@ -5064,7 +5066,7 @@
       <c r="A157" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C157" s="14" t="s">
@@ -5072,7 +5074,7 @@
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="3"/>
+      <c r="F157" s="5"/>
       <c r="G157" s="3"/>
       <c r="H157" s="17" t="s">
         <v>16</v>
@@ -5082,7 +5084,7 @@
       <c r="A158" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B158" s="32" t="s">
+      <c r="B158" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C158" s="12" t="s">
@@ -5100,7 +5102,7 @@
       <c r="A159" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B159" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C159" s="12" t="s">
@@ -5118,7 +5120,7 @@
       <c r="A160" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B160" s="32" t="s">
+      <c r="B160" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C160" s="12" t="s">
@@ -5126,7 +5128,7 @@
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="3"/>
+      <c r="F160" s="5"/>
       <c r="G160" s="3"/>
       <c r="H160" s="17" t="s">
         <v>16</v>
@@ -5136,7 +5138,7 @@
       <c r="A161" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C161" s="12" t="s">
@@ -5144,7 +5146,7 @@
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="3"/>
+      <c r="F161" s="5"/>
       <c r="G161" s="3"/>
       <c r="H161" s="17" t="s">
         <v>16</v>
@@ -5154,15 +5156,15 @@
       <c r="A162" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B162" s="32" t="s">
+      <c r="B162" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="3"/>
+      <c r="F162" s="5"/>
       <c r="G162" s="3"/>
       <c r="H162" s="17" t="s">
         <v>16</v>
@@ -5172,15 +5174,15 @@
       <c r="A163" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="5"/>
       <c r="G163" s="3"/>
       <c r="H163" s="17" t="s">
         <v>16</v>
@@ -5190,15 +5192,15 @@
       <c r="A164" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B164" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
-      <c r="F164" s="3"/>
+      <c r="F164" s="5"/>
       <c r="G164" s="3"/>
       <c r="H164" s="17" t="s">
         <v>16</v>
@@ -5208,15 +5210,15 @@
       <c r="A165" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="3"/>
+      <c r="F165" s="5"/>
       <c r="G165" s="3"/>
       <c r="H165" s="17" t="s">
         <v>16</v>
@@ -5226,15 +5228,15 @@
       <c r="A166" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B166" s="32" t="s">
+      <c r="B166" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
-      <c r="F166" s="3"/>
+      <c r="F166" s="5"/>
       <c r="G166" s="3"/>
       <c r="H166" s="17" t="s">
         <v>16</v>
@@ -5244,15 +5246,15 @@
       <c r="A167" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="32" t="s">
+      <c r="B167" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
-      <c r="F167" s="3"/>
+      <c r="F167" s="5"/>
       <c r="G167" s="3"/>
       <c r="H167" s="17" t="s">
         <v>16</v>
@@ -5262,11 +5264,11 @@
       <c r="A168" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B168" s="32" t="s">
+      <c r="B168" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
@@ -5280,11 +5282,11 @@
       <c r="A169" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B169" s="32" t="s">
+      <c r="B169" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
@@ -5298,11 +5300,11 @@
       <c r="A170" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B170" s="32" t="s">
+      <c r="B170" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
@@ -5316,11 +5318,11 @@
       <c r="A171" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B171" s="32" t="s">
+      <c r="B171" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
@@ -5334,15 +5336,15 @@
       <c r="A172" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B172" s="32" t="s">
+      <c r="B172" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
-      <c r="F172" s="3"/>
+      <c r="F172" s="5"/>
       <c r="G172" s="3"/>
       <c r="H172" s="17" t="s">
         <v>16</v>
@@ -5352,11 +5354,11 @@
       <c r="A173" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B173" s="32" t="s">
+      <c r="B173" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
@@ -5370,11 +5372,11 @@
       <c r="A174" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B174" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
@@ -5388,11 +5390,11 @@
       <c r="A175" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B175" s="32" t="s">
+      <c r="B175" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
@@ -5406,11 +5408,11 @@
       <c r="A176" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B176" s="32" t="s">
+      <c r="B176" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
@@ -5424,15 +5426,15 @@
       <c r="A177" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B177" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>138</v>
+      <c r="B177" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C177" s="12">
+        <v>1</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
-      <c r="F177" s="3"/>
+      <c r="F177" s="5"/>
       <c r="G177" s="3"/>
       <c r="H177" s="17" t="s">
         <v>16</v>
@@ -5442,15 +5444,15 @@
       <c r="A178" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B178" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>139</v>
+      <c r="B178" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C178" s="12">
+        <v>2</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
-      <c r="F178" s="3"/>
+      <c r="F178" s="5"/>
       <c r="G178" s="3"/>
       <c r="H178" s="17" t="s">
         <v>16</v>
@@ -5460,15 +5462,15 @@
       <c r="A179" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B179" s="35" t="s">
+      <c r="B179" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C179" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="3"/>
+      <c r="F179" s="5"/>
       <c r="G179" s="3"/>
       <c r="H179" s="17" t="s">
         <v>16</v>
@@ -5478,11 +5480,11 @@
       <c r="A180" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C180" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -5493,108 +5495,108 @@
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B181" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C181" s="12">
-        <v>3</v>
+      <c r="A181" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B181" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
-      <c r="F181" s="3"/>
+      <c r="F181" s="5"/>
       <c r="G181" s="3"/>
       <c r="H181" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B182" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C182" s="12">
-        <v>4</v>
+      <c r="A182" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B182" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
-      <c r="F182" s="3"/>
+      <c r="F182" s="5"/>
       <c r="G182" s="3"/>
       <c r="H182" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="30" t="s">
+      <c r="A183" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B183" s="36" t="s">
+      <c r="B183" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
-      <c r="F183" s="3"/>
+      <c r="F183" s="5"/>
       <c r="G183" s="3"/>
       <c r="H183" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="30" t="s">
+      <c r="A184" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B184" s="36" t="s">
+      <c r="B184" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
-      <c r="F184" s="3"/>
+      <c r="F184" s="5"/>
       <c r="G184" s="3"/>
       <c r="H184" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B185" s="36" t="s">
-        <v>71</v>
+      <c r="A185" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
-      <c r="F185" s="3"/>
+      <c r="F185" s="5"/>
       <c r="G185" s="3"/>
       <c r="H185" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B186" s="36" t="s">
-        <v>71</v>
+      <c r="A186" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
-      <c r="F186" s="3"/>
+      <c r="F186" s="5"/>
       <c r="G186" s="3"/>
       <c r="H186" s="17" t="s">
         <v>16</v>
@@ -5604,15 +5606,15 @@
       <c r="A187" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
-      <c r="F187" s="3"/>
+      <c r="F187" s="5"/>
       <c r="G187" s="3"/>
       <c r="H187" s="17" t="s">
         <v>16</v>
@@ -5622,15 +5624,15 @@
       <c r="A188" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B188" s="37" t="s">
+      <c r="B188" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
-      <c r="F188" s="3"/>
+      <c r="F188" s="5"/>
       <c r="G188" s="3"/>
       <c r="H188" s="17" t="s">
         <v>16</v>
@@ -5640,15 +5642,15 @@
       <c r="A189" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B189" s="37" t="s">
+      <c r="B189" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
-      <c r="F189" s="3"/>
+      <c r="F189" s="5"/>
       <c r="G189" s="3"/>
       <c r="H189" s="17" t="s">
         <v>16</v>
@@ -5658,11 +5660,11 @@
       <c r="A190" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B190" s="37" t="s">
+      <c r="B190" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -5676,11 +5678,11 @@
       <c r="A191" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B191" s="37" t="s">
+      <c r="B191" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -5694,11 +5696,11 @@
       <c r="A192" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B192" s="37" t="s">
+      <c r="B192" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -5712,15 +5714,15 @@
       <c r="A193" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B193" s="37" t="s">
-        <v>77</v>
+      <c r="B193" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="3"/>
+      <c r="F193" s="5"/>
       <c r="G193" s="3"/>
       <c r="H193" s="17" t="s">
         <v>16</v>
@@ -5730,11 +5732,11 @@
       <c r="A194" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B194" s="37" t="s">
-        <v>77</v>
+      <c r="B194" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -5748,15 +5750,15 @@
       <c r="A195" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
-      <c r="F195" s="3"/>
+      <c r="F195" s="5"/>
       <c r="G195" s="3"/>
       <c r="H195" s="17" t="s">
         <v>16</v>
@@ -5766,15 +5768,15 @@
       <c r="A196" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
-      <c r="F196" s="3"/>
+      <c r="F196" s="5"/>
       <c r="G196" s="3"/>
       <c r="H196" s="17" t="s">
         <v>16</v>
@@ -5784,11 +5786,11 @@
       <c r="A197" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -5802,11 +5804,11 @@
       <c r="A198" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -5817,94 +5819,78 @@
       </c>
     </row>
     <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B199" s="38" t="s">
+      <c r="A199" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B199" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
-      <c r="F199" s="3"/>
+      <c r="F199" s="5"/>
       <c r="G199" s="3"/>
       <c r="H199" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B200" s="38" t="s">
+      <c r="A200" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B200" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
-      <c r="F200" s="3"/>
+      <c r="F200" s="5"/>
       <c r="G200" s="3"/>
       <c r="H200" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="31" t="s">
+      <c r="A201" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
-      <c r="F201" s="3"/>
+      <c r="F201" s="5"/>
       <c r="G201" s="3"/>
       <c r="H201" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B202" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D202" s="15"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A202" s="21"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
     </row>
     <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B203" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="A203" s="21"/>
+      <c r="B203" s="21"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
     </row>
     <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="19"/>
@@ -6085,10 +6071,10 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q43:Q135 J43:J135 H106:H203 A7:A42 A106:A203 H7:H42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q43:Q135 J43:J135 A7:A42 H7:H42 A106:A201 H106:H201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SFX,Ambience,musique,Antoine,Mathis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B12 K58:K135 K43:K56 B106:B203 B14:B42" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B12 K58:K135 K43:K56 B14:B42 B106:B201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Joueur,Arme Joueur,Chomper,Spitter,Grenadier (boss),Coffre santé,Interupteur,plaque,Porte,grenade,boule crachat,musique,surface,ambience extra"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K57 B13" xr:uid="{D9ABF81F-9AC8-41DA-90D5-DC9A15228764}">

--- a/Copie de Kanban Audio 2 - Gabarit.xlsx
+++ b/Copie de Kanban Audio 2 - Gabarit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2269244\Documents\GitHub\TP-Final-Kanban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5899536A-ADD0-4545-84B2-CFB38D06384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C50E99-3AB6-4D83-B3D8-A0CBA7549212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4290" yWindow="4170" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanban Audio - Gabarit" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="165">
   <si>
     <t>MON PROJET - KANBAN AUDIO</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>Onomatopés mort 2 vocale</t>
+  </si>
+  <si>
+    <t>ambience de caverne</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:Q220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5873,14 +5876,22 @@
       </c>
     </row>
     <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="21"/>
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="21"/>
-      <c r="H202" s="21"/>
+      <c r="A202" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B202" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="21"/>
@@ -6071,10 +6082,10 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q43:Q135 J43:J135 A7:A42 H7:H42 A106:A201 H106:H201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q43:Q135 J43:J135 A7:A42 H7:H42 A106:A202 H106:H202" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SFX,Ambience,musique,Antoine,Mathis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B12 K58:K135 K43:K56 B14:B42 B106:B201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B7:B12 K58:K135 K43:K56 B14:B42 B106:B202" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Joueur,Arme Joueur,Chomper,Spitter,Grenadier (boss),Coffre santé,Interupteur,plaque,Porte,grenade,boule crachat,musique,surface,ambience extra"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K57 B13" xr:uid="{D9ABF81F-9AC8-41DA-90D5-DC9A15228764}">
